--- a/EjerciciosClase/InsertionSort.xlsx
+++ b/EjerciciosClase/InsertionSort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1234\Documents\Repositorios\EstrategiasAlgoritmicas\EjerciciosClase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8BDA7-63CB-4094-BDF9-BB7540CDE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0740A6B5-0CB9-45B9-9F5A-79979D45FCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0325924D-C993-4C80-822C-259A28DB75B7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0325924D-C993-4C80-822C-259A28DB75B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso Promedio" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -360,127 +360,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>249913</c:v>
+                  <c:v>251668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295858</c:v>
+                  <c:v>301592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353375</c:v>
+                  <c:v>360633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429839</c:v>
+                  <c:v>423144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503052</c:v>
+                  <c:v>487414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>555926</c:v>
+                  <c:v>563906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>611634</c:v>
+                  <c:v>639377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>712363</c:v>
+                  <c:v>717879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>826021</c:v>
+                  <c:v>806121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>886737</c:v>
+                  <c:v>906297</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>988138</c:v>
+                  <c:v>999442</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1114703</c:v>
+                  <c:v>1103790</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1227457</c:v>
+                  <c:v>1215056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1325119</c:v>
+                  <c:v>1325975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1432611</c:v>
+                  <c:v>1437267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1550149</c:v>
+                  <c:v>1568692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700282</c:v>
+                  <c:v>1694610</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1841993</c:v>
+                  <c:v>1820216</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1964042</c:v>
+                  <c:v>1965927</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2077770</c:v>
+                  <c:v>2111529</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2230039</c:v>
+                  <c:v>2251902</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2433332</c:v>
+                  <c:v>2404140</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2598966</c:v>
+                  <c:v>2561488</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2674144</c:v>
+                  <c:v>2718951</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2886995</c:v>
+                  <c:v>2876134</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3098837</c:v>
+                  <c:v>3072111</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3234089</c:v>
+                  <c:v>3237543</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3483074</c:v>
+                  <c:v>3426450</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3617701</c:v>
+                  <c:v>3603995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3840074</c:v>
+                  <c:v>3806348</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4036754</c:v>
+                  <c:v>4003670</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4158429</c:v>
+                  <c:v>4208247</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4442375</c:v>
+                  <c:v>4410706</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4617733</c:v>
+                  <c:v>4622146</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4809697</c:v>
+                  <c:v>4829480</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5084864</c:v>
+                  <c:v>5060100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5301332</c:v>
+                  <c:v>5287200</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5567324</c:v>
+                  <c:v>5528932</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5892683</c:v>
+                  <c:v>5761378</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5920254</c:v>
+                  <c:v>5993912</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6204101</c:v>
+                  <c:v>6245023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,7 +777,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -949,127 +949,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>253757</c:v>
+                  <c:v>252675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300645</c:v>
+                  <c:v>302696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>356189</c:v>
+                  <c:v>361837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>417644</c:v>
+                  <c:v>424449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491881</c:v>
+                  <c:v>488818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>577836</c:v>
+                  <c:v>565411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>631135</c:v>
+                  <c:v>640982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>708258</c:v>
+                  <c:v>719585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>807610</c:v>
+                  <c:v>807925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>918487</c:v>
+                  <c:v>908202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>984394</c:v>
+                  <c:v>1001448</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1088462</c:v>
+                  <c:v>1105895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1235502</c:v>
+                  <c:v>1217262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1317175</c:v>
+                  <c:v>1328281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1462695</c:v>
+                  <c:v>1439673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1577032</c:v>
+                  <c:v>1571199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1694372</c:v>
+                  <c:v>1697216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1897727</c:v>
+                  <c:v>1822922</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1963018</c:v>
+                  <c:v>1968733</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2096409</c:v>
+                  <c:v>2114435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2304499</c:v>
+                  <c:v>2254908</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2374147</c:v>
+                  <c:v>2407246</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2569821</c:v>
+                  <c:v>2564694</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2738589</c:v>
+                  <c:v>2722258</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2894555</c:v>
+                  <c:v>2879540</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3057745</c:v>
+                  <c:v>3075617</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3268565</c:v>
+                  <c:v>3241150</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3393965</c:v>
+                  <c:v>3430156</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3492992</c:v>
+                  <c:v>3607801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3821937</c:v>
+                  <c:v>3810255</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3991340</c:v>
+                  <c:v>4007676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4203492</c:v>
+                  <c:v>4212353</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4446682</c:v>
+                  <c:v>4414912</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4610272</c:v>
+                  <c:v>4626453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4746219</c:v>
+                  <c:v>4833886</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5072024</c:v>
+                  <c:v>5064607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5317506</c:v>
+                  <c:v>5291807</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5567095</c:v>
+                  <c:v>5533638</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5686141</c:v>
+                  <c:v>5766184</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5954066</c:v>
+                  <c:v>5998819</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6315009</c:v>
+                  <c:v>6250029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,7 +1543,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1008</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1099</c:v>
@@ -2137,7 +2137,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>2016</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2198</c:v>
@@ -7404,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163BF9CB-057F-45D2-9F87-91A0B2D225A5}">
   <dimension ref="B2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7430,10 +7430,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>249913</v>
+        <v>251668</v>
       </c>
       <c r="D3">
-        <v>253757</v>
+        <v>252675</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -7441,10 +7441,10 @@
         <v>1100</v>
       </c>
       <c r="C4">
-        <v>295858</v>
+        <v>301592</v>
       </c>
       <c r="D4">
-        <v>300645</v>
+        <v>302696</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -7452,10 +7452,10 @@
         <v>1200</v>
       </c>
       <c r="C5">
-        <v>353375</v>
+        <v>360633</v>
       </c>
       <c r="D5">
-        <v>356189</v>
+        <v>361837</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -7463,10 +7463,10 @@
         <v>1300</v>
       </c>
       <c r="C6">
-        <v>429839</v>
+        <v>423144</v>
       </c>
       <c r="D6">
-        <v>417644</v>
+        <v>424449</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -7474,10 +7474,10 @@
         <v>1400</v>
       </c>
       <c r="C7">
-        <v>503052</v>
+        <v>487414</v>
       </c>
       <c r="D7">
-        <v>491881</v>
+        <v>488818</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -7485,10 +7485,10 @@
         <v>1500</v>
       </c>
       <c r="C8">
-        <v>555926</v>
+        <v>563906</v>
       </c>
       <c r="D8">
-        <v>577836</v>
+        <v>565411</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -7496,10 +7496,10 @@
         <v>1600</v>
       </c>
       <c r="C9">
-        <v>611634</v>
+        <v>639377</v>
       </c>
       <c r="D9">
-        <v>631135</v>
+        <v>640982</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -7507,10 +7507,10 @@
         <v>1700</v>
       </c>
       <c r="C10">
-        <v>712363</v>
+        <v>717879</v>
       </c>
       <c r="D10">
-        <v>708258</v>
+        <v>719585</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -7518,10 +7518,10 @@
         <v>1800</v>
       </c>
       <c r="C11">
-        <v>826021</v>
+        <v>806121</v>
       </c>
       <c r="D11">
-        <v>807610</v>
+        <v>807925</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -7529,10 +7529,10 @@
         <v>1900</v>
       </c>
       <c r="C12">
-        <v>886737</v>
+        <v>906297</v>
       </c>
       <c r="D12">
-        <v>918487</v>
+        <v>908202</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -7540,10 +7540,10 @@
         <v>2000</v>
       </c>
       <c r="C13">
-        <v>988138</v>
+        <v>999442</v>
       </c>
       <c r="D13">
-        <v>984394</v>
+        <v>1001448</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -7551,10 +7551,10 @@
         <v>2100</v>
       </c>
       <c r="C14">
-        <v>1114703</v>
+        <v>1103790</v>
       </c>
       <c r="D14">
-        <v>1088462</v>
+        <v>1105895</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -7562,10 +7562,10 @@
         <v>2200</v>
       </c>
       <c r="C15">
-        <v>1227457</v>
+        <v>1215056</v>
       </c>
       <c r="D15">
-        <v>1235502</v>
+        <v>1217262</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -7573,10 +7573,10 @@
         <v>2300</v>
       </c>
       <c r="C16">
-        <v>1325119</v>
+        <v>1325975</v>
       </c>
       <c r="D16">
-        <v>1317175</v>
+        <v>1328281</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -7584,10 +7584,10 @@
         <v>2400</v>
       </c>
       <c r="C17">
-        <v>1432611</v>
+        <v>1437267</v>
       </c>
       <c r="D17">
-        <v>1462695</v>
+        <v>1439673</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -7595,10 +7595,10 @@
         <v>2500</v>
       </c>
       <c r="C18">
-        <v>1550149</v>
+        <v>1568692</v>
       </c>
       <c r="D18">
-        <v>1577032</v>
+        <v>1571199</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -7606,10 +7606,10 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>1700282</v>
+        <v>1694610</v>
       </c>
       <c r="D19">
-        <v>1694372</v>
+        <v>1697216</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -7617,10 +7617,10 @@
         <v>2700</v>
       </c>
       <c r="C20">
-        <v>1841993</v>
+        <v>1820216</v>
       </c>
       <c r="D20">
-        <v>1897727</v>
+        <v>1822922</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -7628,10 +7628,10 @@
         <v>2800</v>
       </c>
       <c r="C21">
-        <v>1964042</v>
+        <v>1965927</v>
       </c>
       <c r="D21">
-        <v>1963018</v>
+        <v>1968733</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -7639,10 +7639,10 @@
         <v>2900</v>
       </c>
       <c r="C22">
-        <v>2077770</v>
+        <v>2111529</v>
       </c>
       <c r="D22">
-        <v>2096409</v>
+        <v>2114435</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -7650,10 +7650,10 @@
         <v>3000</v>
       </c>
       <c r="C23">
-        <v>2230039</v>
+        <v>2251902</v>
       </c>
       <c r="D23">
-        <v>2304499</v>
+        <v>2254908</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -7661,10 +7661,10 @@
         <v>3100</v>
       </c>
       <c r="C24">
-        <v>2433332</v>
+        <v>2404140</v>
       </c>
       <c r="D24">
-        <v>2374147</v>
+        <v>2407246</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -7672,10 +7672,10 @@
         <v>3200</v>
       </c>
       <c r="C25">
-        <v>2598966</v>
+        <v>2561488</v>
       </c>
       <c r="D25">
-        <v>2569821</v>
+        <v>2564694</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -7683,10 +7683,10 @@
         <v>3300</v>
       </c>
       <c r="C26">
-        <v>2674144</v>
+        <v>2718951</v>
       </c>
       <c r="D26">
-        <v>2738589</v>
+        <v>2722258</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -7694,10 +7694,10 @@
         <v>3400</v>
       </c>
       <c r="C27">
-        <v>2886995</v>
+        <v>2876134</v>
       </c>
       <c r="D27">
-        <v>2894555</v>
+        <v>2879540</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -7705,10 +7705,10 @@
         <v>3500</v>
       </c>
       <c r="C28">
-        <v>3098837</v>
+        <v>3072111</v>
       </c>
       <c r="D28">
-        <v>3057745</v>
+        <v>3075617</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -7716,10 +7716,10 @@
         <v>3600</v>
       </c>
       <c r="C29">
-        <v>3234089</v>
+        <v>3237543</v>
       </c>
       <c r="D29">
-        <v>3268565</v>
+        <v>3241150</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -7727,10 +7727,10 @@
         <v>3700</v>
       </c>
       <c r="C30">
-        <v>3483074</v>
+        <v>3426450</v>
       </c>
       <c r="D30">
-        <v>3393965</v>
+        <v>3430156</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -7738,10 +7738,10 @@
         <v>3800</v>
       </c>
       <c r="C31">
-        <v>3617701</v>
+        <v>3603995</v>
       </c>
       <c r="D31">
-        <v>3492992</v>
+        <v>3607801</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -7749,10 +7749,10 @@
         <v>3900</v>
       </c>
       <c r="C32">
-        <v>3840074</v>
+        <v>3806348</v>
       </c>
       <c r="D32">
-        <v>3821937</v>
+        <v>3810255</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -7760,10 +7760,10 @@
         <v>4000</v>
       </c>
       <c r="C33">
-        <v>4036754</v>
+        <v>4003670</v>
       </c>
       <c r="D33">
-        <v>3991340</v>
+        <v>4007676</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -7771,10 +7771,10 @@
         <v>4100</v>
       </c>
       <c r="C34">
-        <v>4158429</v>
+        <v>4208247</v>
       </c>
       <c r="D34">
-        <v>4203492</v>
+        <v>4212353</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -7782,10 +7782,10 @@
         <v>4200</v>
       </c>
       <c r="C35">
-        <v>4442375</v>
+        <v>4410706</v>
       </c>
       <c r="D35">
-        <v>4446682</v>
+        <v>4414912</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -7793,10 +7793,10 @@
         <v>4300</v>
       </c>
       <c r="C36">
-        <v>4617733</v>
+        <v>4622146</v>
       </c>
       <c r="D36">
-        <v>4610272</v>
+        <v>4626453</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -7804,10 +7804,10 @@
         <v>4400</v>
       </c>
       <c r="C37">
-        <v>4809697</v>
+        <v>4829480</v>
       </c>
       <c r="D37">
-        <v>4746219</v>
+        <v>4833886</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -7815,10 +7815,10 @@
         <v>4500</v>
       </c>
       <c r="C38">
-        <v>5084864</v>
+        <v>5060100</v>
       </c>
       <c r="D38">
-        <v>5072024</v>
+        <v>5064607</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -7826,10 +7826,10 @@
         <v>4600</v>
       </c>
       <c r="C39">
-        <v>5301332</v>
+        <v>5287200</v>
       </c>
       <c r="D39">
-        <v>5317506</v>
+        <v>5291807</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -7837,10 +7837,10 @@
         <v>4700</v>
       </c>
       <c r="C40">
-        <v>5567324</v>
+        <v>5528932</v>
       </c>
       <c r="D40">
-        <v>5567095</v>
+        <v>5533638</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -7848,10 +7848,10 @@
         <v>4800</v>
       </c>
       <c r="C41">
-        <v>5892683</v>
+        <v>5761378</v>
       </c>
       <c r="D41">
-        <v>5686141</v>
+        <v>5766184</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -7859,10 +7859,10 @@
         <v>4900</v>
       </c>
       <c r="C42">
-        <v>5920254</v>
+        <v>5993912</v>
       </c>
       <c r="D42">
-        <v>5954066</v>
+        <v>5998819</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -7870,10 +7870,10 @@
         <v>5000</v>
       </c>
       <c r="C43">
-        <v>6204101</v>
+        <v>6245023</v>
       </c>
       <c r="D43">
-        <v>6315009</v>
+        <v>6250029</v>
       </c>
     </row>
   </sheetData>
@@ -7886,8 +7886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13302E8E-1340-4DAB-85FA-307243F5F2D4}">
   <dimension ref="B2:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7912,10 +7912,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="D3">
-        <v>2016</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
